--- a/pred_ohlcv/54_21/2020-01-19 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1116667.87984955</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1296421.90204955</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-1339106.34214955</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1240800.469149549</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1418513.467949549</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1418463.467949549</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2479370.170349549</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2480885.400349549</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4403654.96126843</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4403654.96126843</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4403608.96126843</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4403608.96126843</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4403980.14376843</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4403903.14376843</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4554134.204986399</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-5064644.91256168</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-5097551.45236168</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-5085149.41896168</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5085149.41896168</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-4867340.033161491</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-4865764.171261491</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4943716.871961491</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4933330.507561491</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-4935004.842461491</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-4514346.399861491</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4541219.474517566</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4952647.541639159</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4952555.775539159</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-4938718.393271234</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-4937662.618271234</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-5094649.939571233</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-4814418.057888214</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5759258.150523594</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-5976657.124523594</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-6064603.609023594</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-6043052.744023594</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-6043003.744023594</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-6043003.744023594</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-6221581.455623593</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 SOC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1116667.87984955</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-1296421.90204955</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1418513.467949549</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1451506.035449549</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2479370.170349549</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2480885.400349549</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-4403654.96126843</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-4403654.96126843</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-4403608.96126843</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-4403608.96126843</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4403912.376968429</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4403980.14376843</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-4403903.14376843</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-4554134.204986399</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-4633827.735656742</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-5085149.41896168</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-5085296.943961681</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5085349.41896168</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-4867340.033161491</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-4873610.803161492</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-4943716.871961491</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-4933330.507561491</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-4935054.842461491</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-4935004.842461491</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-4966405.854761491</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-4972211.254761491</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-4514346.399861491</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-4541219.474517566</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-4954995.408339159</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-4958372.541639159</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-4952647.541639159</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-4952749.412039159</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-4952555.775539159</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-4952275.775539159</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-4952277.147171234</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-4952432.556871234</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-4952530.556871234</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-4938718.393271234</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-4937662.618271234</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-5037662.618271234</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-5037662.618271234</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-5094649.939571233</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-4814418.057888214</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-4877185.115423594</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-5759258.150523594</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-5976657.124523594</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-6064603.609023594</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-6043003.744023594</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-6097416.670523594</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-6071376.159823594</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-6064849.372923594</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-6060972.478623594</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-6060972.478623594</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-6048634.793923594</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-6086734.406923594</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-6086685.406923594</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-6088780.966923594</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-6088731.966923594</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-6088731.966923594</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-6139608.799223593</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-6139608.799223593</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-6221581.455623593</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-6197174.798823593</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-6197259.214123594</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
